--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Nrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N2">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P2">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q2">
-        <v>54.34905975452415</v>
+        <v>183.9838237302893</v>
       </c>
       <c r="R2">
-        <v>54.34905975452415</v>
+        <v>1655.854413572604</v>
       </c>
       <c r="S2">
-        <v>0.0008515652531694102</v>
+        <v>0.002650934606104678</v>
       </c>
       <c r="T2">
-        <v>0.0008515652531694102</v>
+        <v>0.002650934606104678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N3">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P3">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q3">
-        <v>27.90492330367038</v>
+        <v>92.5255005373813</v>
       </c>
       <c r="R3">
-        <v>27.90492330367038</v>
+        <v>832.7295048364318</v>
       </c>
       <c r="S3">
-        <v>0.0004372267558094225</v>
+        <v>0.001333155526114444</v>
       </c>
       <c r="T3">
-        <v>0.0004372267558094225</v>
+        <v>0.001333155526114445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H4">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I4">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J4">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N4">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P4">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q4">
-        <v>24.7530146392632</v>
+        <v>88.59667084761732</v>
       </c>
       <c r="R4">
-        <v>24.7530146392632</v>
+        <v>797.3700376285559</v>
       </c>
       <c r="S4">
-        <v>0.0003878412482791045</v>
+        <v>0.001276546904905687</v>
       </c>
       <c r="T4">
-        <v>0.0003878412482791045</v>
+        <v>0.001276546904905687</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H5">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I5">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J5">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N5">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P5">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q5">
-        <v>6.55110053706654</v>
+        <v>29.94506938257333</v>
       </c>
       <c r="R5">
-        <v>6.55110053706654</v>
+        <v>269.50562444316</v>
       </c>
       <c r="S5">
-        <v>0.0001026455584067569</v>
+        <v>0.0004314641314599471</v>
       </c>
       <c r="T5">
-        <v>0.0001026455584067569</v>
+        <v>0.0004314641314599472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H6">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I6">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J6">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N6">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P6">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q6">
-        <v>29173.62491282198</v>
+        <v>30639.16965270573</v>
       </c>
       <c r="R6">
-        <v>29173.62491282198</v>
+        <v>275752.5268743516</v>
       </c>
       <c r="S6">
-        <v>0.4571053371845803</v>
+        <v>0.4414650890924939</v>
       </c>
       <c r="T6">
-        <v>0.4571053371845803</v>
+        <v>0.4414650890924939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H7">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I7">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J7">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N7">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P7">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q7">
-        <v>14978.87487583588</v>
+        <v>15408.44434411888</v>
       </c>
       <c r="R7">
-        <v>14978.87487583588</v>
+        <v>138675.9990970699</v>
       </c>
       <c r="S7">
-        <v>0.2346956770447589</v>
+        <v>0.2220128786862365</v>
       </c>
       <c r="T7">
-        <v>0.2346956770447589</v>
+        <v>0.2220128786862365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H8">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I8">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J8">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N8">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P8">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q8">
-        <v>13286.98541997029</v>
+        <v>14754.16900099018</v>
       </c>
       <c r="R8">
-        <v>13286.98541997029</v>
+        <v>132787.5210089116</v>
       </c>
       <c r="S8">
-        <v>0.2081864001717783</v>
+        <v>0.2125857393113994</v>
       </c>
       <c r="T8">
-        <v>0.2081864001717783</v>
+        <v>0.2125857393113994</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>252.361879689836</v>
+        <v>259.5505726666667</v>
       </c>
       <c r="H9">
-        <v>252.361879689836</v>
+        <v>778.6517180000001</v>
       </c>
       <c r="I9">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201305</v>
       </c>
       <c r="J9">
-        <v>0.9550857552638886</v>
+        <v>0.9479162344201304</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N9">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P9">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q9">
-        <v>3516.516213855137</v>
+        <v>4986.808309950683</v>
       </c>
       <c r="R9">
-        <v>3516.516213855137</v>
+        <v>44881.27478955615</v>
       </c>
       <c r="S9">
-        <v>0.05509834086277109</v>
+        <v>0.07185252733000072</v>
       </c>
       <c r="T9">
-        <v>0.05509834086277109</v>
+        <v>0.07185252733000072</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H10">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I10">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J10">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N10">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P10">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q10">
-        <v>1278.967025439093</v>
+        <v>1438.904859876116</v>
       </c>
       <c r="R10">
-        <v>1278.967025439093</v>
+        <v>12950.14373888504</v>
       </c>
       <c r="S10">
-        <v>0.02003942448558564</v>
+        <v>0.02073248946890881</v>
       </c>
       <c r="T10">
-        <v>0.02003942448558564</v>
+        <v>0.02073248946890881</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H11">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I11">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J11">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N11">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P11">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q11">
-        <v>656.6714661486014</v>
+        <v>723.6255323233074</v>
       </c>
       <c r="R11">
-        <v>656.6714661486014</v>
+        <v>6512.629790909767</v>
       </c>
       <c r="S11">
-        <v>0.01028902074563328</v>
+        <v>0.01042637296368445</v>
       </c>
       <c r="T11">
-        <v>0.01028902074563328</v>
+        <v>0.01042637296368445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H12">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I12">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J12">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N12">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P12">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q12">
-        <v>582.4993044372485</v>
+        <v>692.8988520119216</v>
       </c>
       <c r="R12">
-        <v>582.4993044372485</v>
+        <v>6236.089668107294</v>
       </c>
       <c r="S12">
-        <v>0.00912685830986836</v>
+        <v>0.009983646975515102</v>
       </c>
       <c r="T12">
-        <v>0.00912685830986836</v>
+        <v>0.009983646975515103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>11.0635042290981</v>
+        <v>12.18925266666667</v>
       </c>
       <c r="H13">
-        <v>11.0635042290981</v>
+        <v>36.567758</v>
       </c>
       <c r="I13">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="J13">
-        <v>0.04187080594541537</v>
+        <v>0.04451691386950307</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N13">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P13">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q13">
-        <v>154.1635054053898</v>
+        <v>234.1950775361489</v>
       </c>
       <c r="R13">
-        <v>154.1635054053898</v>
+        <v>2107.75569782534</v>
       </c>
       <c r="S13">
-        <v>0.002415502404328097</v>
+        <v>0.003374404461394705</v>
       </c>
       <c r="T13">
-        <v>0.002415502404328097</v>
+        <v>0.003374404461394706</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H14">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I14">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J14">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.602344334563</v>
+        <v>118.0470123333333</v>
       </c>
       <c r="N14">
-        <v>115.602344334563</v>
+        <v>354.141037</v>
       </c>
       <c r="O14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="P14">
-        <v>0.478601355601082</v>
+        <v>0.4657216250363638</v>
       </c>
       <c r="Q14">
-        <v>38.61446863604008</v>
+        <v>60.59691544505355</v>
       </c>
       <c r="R14">
-        <v>38.61446863604008</v>
+        <v>545.3722390054819</v>
       </c>
       <c r="S14">
-        <v>0.0006050286777466188</v>
+        <v>0.0008731118688563572</v>
       </c>
       <c r="T14">
-        <v>0.0006050286777466188</v>
+        <v>0.0008731118688563572</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H15">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I15">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J15">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.3547444417738</v>
+        <v>59.36586533333332</v>
       </c>
       <c r="N15">
-        <v>59.3547444417738</v>
+        <v>178.097596</v>
       </c>
       <c r="O15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037475</v>
       </c>
       <c r="P15">
-        <v>0.2457325698255366</v>
+        <v>0.2342114953037476</v>
       </c>
       <c r="Q15">
-        <v>19.82617161304226</v>
+        <v>30.47420049707288</v>
       </c>
       <c r="R15">
-        <v>19.82617161304226</v>
+        <v>274.2678044736559</v>
       </c>
       <c r="S15">
-        <v>0.000310645279335032</v>
+        <v>0.000439088127712193</v>
       </c>
       <c r="T15">
-        <v>0.000310645279335032</v>
+        <v>0.0004390881277121931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H16">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I16">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J16">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>52.6505248585903</v>
+        <v>56.84506433333333</v>
       </c>
       <c r="N16">
-        <v>52.6505248585903</v>
+        <v>170.535193</v>
       </c>
       <c r="O16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030476</v>
       </c>
       <c r="P16">
-        <v>0.2179766570953168</v>
+        <v>0.2242663767030477</v>
       </c>
       <c r="Q16">
-        <v>17.58677172617885</v>
+        <v>29.18020108081089</v>
       </c>
       <c r="R16">
-        <v>17.58677172617885</v>
+        <v>262.6218097272979</v>
       </c>
       <c r="S16">
-        <v>0.0002755573653910259</v>
+        <v>0.000420443511227448</v>
       </c>
       <c r="T16">
-        <v>0.0002755573653910259</v>
+        <v>0.000420443511227448</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.334028421813718</v>
+        <v>0.5133286666666667</v>
       </c>
       <c r="H17">
-        <v>0.334028421813718</v>
+        <v>1.539986</v>
       </c>
       <c r="I17">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="J17">
-        <v>0.001264159975031318</v>
+        <v>0.001874750541781658</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>13.9344191689216</v>
+        <v>19.21324333333333</v>
       </c>
       <c r="N17">
-        <v>13.9344191689216</v>
+        <v>57.63973</v>
       </c>
       <c r="O17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684103</v>
       </c>
       <c r="P17">
-        <v>0.05768941747806459</v>
+        <v>0.07580050295684104</v>
       </c>
       <c r="Q17">
-        <v>4.654492043885702</v>
+        <v>9.862708582642222</v>
       </c>
       <c r="R17">
-        <v>4.654492043885702</v>
+        <v>88.76437724377999</v>
       </c>
       <c r="S17">
-        <v>7.292865255864142E-05</v>
+        <v>0.0001421070339856599</v>
       </c>
       <c r="T17">
-        <v>7.292865255864142E-05</v>
+        <v>0.0001421070339856599</v>
       </c>
     </row>
   </sheetData>
